--- a/AAII_Financials/Yearly/INTU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/INTU_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Yearly/INTU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/INTU_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>INTU</t>
   </si>
@@ -1074,8 +1074,8 @@
       <c r="I21" s="3">
         <v>1528000</v>
       </c>
-      <c r="J21" s="3">
-        <v>1447000</v>
+      <c r="J21" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="K21" s="3">
         <v>1430000</v>
@@ -2728,8 +2728,8 @@
       <c r="I83" s="3">
         <v>197000</v>
       </c>
-      <c r="J83" s="3">
-        <v>232000</v>
+      <c r="J83" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="K83" s="3">
         <v>242000</v>
@@ -3042,8 +3042,8 @@
       <c r="I94" s="3">
         <v>-49000</v>
       </c>
-      <c r="J94" s="3">
-        <v>-485000</v>
+      <c r="J94" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="K94" s="3">
         <v>-225000</v>
@@ -3206,8 +3206,8 @@
       <c r="I100" s="3">
         <v>-1551000</v>
       </c>
-      <c r="J100" s="3">
-        <v>-262000</v>
+      <c r="J100" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="K100" s="3">
         <v>-1344000</v>
@@ -3236,8 +3236,8 @@
       <c r="I101" s="3">
         <v>-6000</v>
       </c>
-      <c r="J101" s="3">
-        <v>-3000</v>
+      <c r="J101" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="K101" s="3">
         <v>-6000</v>

--- a/AAII_Financials/Yearly/INTU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/INTU_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>INTU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,158 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43677</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43312</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42947</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42582</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42216</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41851</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41486</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41121</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7679000</v>
+      </c>
+      <c r="E8" s="3">
         <v>6784000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6025000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5196000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4694000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4192000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4243000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3946000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3808000</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1378000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1167000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>978000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>930000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>752000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>725000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>621000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>670000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1331000</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6301000</v>
+      </c>
+      <c r="E10" s="3">
         <v>5617000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5047000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4266000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3942000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3467000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3622000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3276000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2477000</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -816,38 +829,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1392000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1233000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1186000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>998000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>881000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>798000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>714000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1332000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>618000</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,39 +892,45 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="3">
         <v>79000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>148000</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -918,26 +941,29 @@
         <v>6000</v>
       </c>
       <c r="F15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G15" s="3">
         <v>2000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>12000</v>
       </c>
       <c r="H15" s="3">
         <v>12000</v>
       </c>
       <c r="I15" s="3">
+        <v>12000</v>
+      </c>
+      <c r="J15" s="3">
         <v>7000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>17000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>23000</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -947,68 +973,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>5503000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4930000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4465000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3778000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3452000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3454000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2943000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2738000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2640000</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>2176000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1854000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1560000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1418000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1242000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>738000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1300000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1208000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1168000</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1021,158 +1054,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E20" s="3">
         <v>42000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>26000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>31000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>7000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>20000</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>2430000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2121000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1839000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1657000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1476000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>970000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1528000</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1430000</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E22" s="3">
         <v>15000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>20000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>31000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>35000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>27000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>31000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>30000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>50000</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>2198000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1881000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1566000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1390000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1203000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>712000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1300000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1185000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1138000</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>372000</v>
+      </c>
+      <c r="E24" s="3">
         <v>324000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>266000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>405000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>397000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>299000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>447000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>378000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>374000</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1200,69 +1249,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1826000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1557000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1300000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>985000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>806000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>413000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>853000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>807000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>764000</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>1826000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1557000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1300000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>985000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>806000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>413000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>853000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>807000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>764000</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1290,39 +1348,45 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="3">
         <v>29000</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>173000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-48000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>54000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>51000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>28000</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1350,9 +1414,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1380,69 +1447,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-42000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-26000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-31000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-7000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-20000</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>1826000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1557000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1329000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>985000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>979000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>365000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>907000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>858000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>792000</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1470,74 +1546,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>1826000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1557000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1329000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>985000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>979000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>365000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>907000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>858000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>792000</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43677</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43312</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42947</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42582</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42216</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41851</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41486</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41121</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1550,8 +1635,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1564,98 +1650,108 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>6442000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2116000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1464000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>529000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>638000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>808000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>849000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1009000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>393000</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>608000</v>
+      </c>
+      <c r="E42" s="3">
         <v>624000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>252000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>248000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>442000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>889000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1065000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>652000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>351000</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>161000</v>
+      </c>
+      <c r="E43" s="3">
         <v>152000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>235000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>166000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>128000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>175000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>150000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>192000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>424000</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -1683,159 +1779,177 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>769000</v>
+      </c>
+      <c r="E45" s="3">
         <v>702000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>569000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>472000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>406000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>688000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>557000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>543000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>584000</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>7980000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3594000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2422000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1415000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1614000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2560000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2621000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2396000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1523000</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>13000</v>
+        <v>19000</v>
       </c>
       <c r="E47" s="3">
         <v>13000</v>
       </c>
       <c r="F47" s="3">
+        <v>13000</v>
+      </c>
+      <c r="G47" s="3">
         <v>31000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>28000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>27000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>31000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>83000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>75000</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>960000</v>
+      </c>
+      <c r="E48" s="3">
         <v>780000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1624000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1030000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1031000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>682000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>589000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>555000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>543000</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>1682000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1709000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1733000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1317000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1326000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1353000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1456000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1395000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>689000</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1863,9 +1977,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1893,39 +2010,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>290000</v>
+      </c>
+      <c r="E52" s="3">
         <v>187000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>302000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>275000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>251000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>346000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>504000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1057000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1056000</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1953,39 +2076,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>10931000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6283000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5134000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4068000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4250000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4968000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5201000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5486000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4684000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -1998,8 +2127,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2012,43 +2142,47 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>305000</v>
+      </c>
+      <c r="E57" s="3">
         <v>274000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>178000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>157000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>184000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>190000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>145000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>137000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>139000</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>50000</v>
+        <v>1338000</v>
       </c>
       <c r="E58" s="3">
         <v>50000</v>
@@ -2057,10 +2191,10 @@
         <v>50000</v>
       </c>
       <c r="G58" s="3">
+        <v>50000</v>
+      </c>
+      <c r="H58" s="3">
         <v>512000</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>51</v>
@@ -2068,92 +2202,101 @@
       <c r="J58" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1886000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1642000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1515000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1737000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1555000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1554000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1276000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1143000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1250000</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3529000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1966000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1743000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1944000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2251000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1744000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1421000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1280000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1265000</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2031000</v>
+      </c>
+      <c r="E61" s="3">
         <v>386000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>388000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>438000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>488000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>500000</v>
-      </c>
-      <c r="I61" s="3">
-        <v>499000</v>
       </c>
       <c r="J61" s="3">
         <v>499000</v>
@@ -2161,39 +2304,45 @@
       <c r="K61" s="3">
         <v>499000</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>499000</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>265000</v>
+      </c>
+      <c r="E62" s="3">
         <v>182000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>500000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>332000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>350000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>324000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>169000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>167000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>166000</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2221,9 +2370,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2251,9 +2403,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2281,39 +2436,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5825000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2534000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2318000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2714000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3089000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2636000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2123000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1955000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1940000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2326,8 +2487,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2355,9 +2517,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2385,9 +2550,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2415,9 +2583,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2445,39 +2616,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>10885000</v>
+      </c>
+      <c r="E72" s="3">
         <v>9621000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>8564000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>7297000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>6687000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6027000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>5949000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>5262000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4612000</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2505,9 +2682,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2535,9 +2715,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2565,39 +2748,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5106000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3749000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2816000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1354000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1161000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2332000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3078000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3531000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2744000</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2625,74 +2814,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43677</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43312</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42947</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42582</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42216</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41851</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41486</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41121</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>1826000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1557000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1329000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>985000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>979000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>365000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>907000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>858000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>792000</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2705,38 +2903,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>218000</v>
+      </c>
+      <c r="E83" s="3">
         <v>225000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>253000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>236000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>238000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>231000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>197000</v>
       </c>
-      <c r="J83" s="3" t="s">
+      <c r="K83" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>242000</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2764,9 +2966,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2794,9 +2999,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2824,9 +3032,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2854,9 +3065,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2884,39 +3098,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2414000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2324000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2112000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1599000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1460000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1589000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1446000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1366000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1246000</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2929,38 +3149,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-76000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-38000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-102000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-416000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-142000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-104000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-129000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-135000</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2988,9 +3212,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3018,39 +3245,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-97000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-566000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-537000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-17000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>371000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-182000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-49000</v>
       </c>
-      <c r="J94" s="3" t="s">
+      <c r="K94" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-225000</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3063,38 +3296,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-561000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-501000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-407000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-353000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-318000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-283000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-220000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-203000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-178000</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3122,9 +3359,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3152,9 +3392,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3182,97 +3425,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2034000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1034000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-634000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1632000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1999000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1422000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1551000</v>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="K100" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1344000</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-11000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>9000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-26000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-6000</v>
       </c>
-      <c r="J101" s="3" t="s">
+      <c r="K101" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-6000</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4345000</v>
+      </c>
+      <c r="E102" s="3">
         <v>721000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>930000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-41000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-170000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-41000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-160000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>616000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-329000</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/INTU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/INTU_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>INTU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,158 +665,170 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43312</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42947</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42582</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42216</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41851</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41486</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41121</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9633000</v>
+      </c>
+      <c r="E8" s="3">
         <v>7679000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6784000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6025000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5196000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4694000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4192000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4243000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3946000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3808000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1615000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1378000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1167000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>978000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>930000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>752000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>725000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>621000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>670000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1331000</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>8018000</v>
+      </c>
+      <c r="E10" s="3">
         <v>6301000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5617000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5047000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4266000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3942000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3467000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3622000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3276000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2477000</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -830,41 +842,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1678000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1392000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1233000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1186000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>998000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>881000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>798000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>714000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1332000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>618000</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -895,9 +911,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -907,35 +926,38 @@
       <c r="E14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="3">
         <v>79000</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>148000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>6000</v>
+        <v>146000</v>
       </c>
       <c r="E15" s="3">
         <v>6000</v>
@@ -944,26 +966,29 @@
         <v>6000</v>
       </c>
       <c r="G15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H15" s="3">
         <v>2000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>12000</v>
       </c>
       <c r="I15" s="3">
         <v>12000</v>
       </c>
       <c r="J15" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K15" s="3">
         <v>7000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>17000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>23000</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -974,74 +999,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>7133000</v>
+      </c>
+      <c r="E17" s="3">
         <v>5503000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4930000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4465000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3778000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3452000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3454000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2943000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2738000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2640000</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>2500000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2176000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1854000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1560000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1418000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1242000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>738000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1300000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1208000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1168000</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1055,173 +1087,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E20" s="3">
         <v>36000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>42000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>26000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>31000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>20000</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>2948000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2430000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2121000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1839000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1657000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1476000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>970000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1528000</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1430000</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E22" s="3">
         <v>14000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>15000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>20000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>31000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>35000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>27000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>31000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>30000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>50000</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>2556000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2198000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1881000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1566000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1390000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1203000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>712000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1300000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1185000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1138000</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>494000</v>
+      </c>
+      <c r="E24" s="3">
         <v>372000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>324000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>266000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>405000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>397000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>299000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>447000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>378000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>374000</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1252,75 +1300,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>2062000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1826000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1557000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1300000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>985000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>806000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>413000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>853000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>807000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>764000</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>2062000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1826000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1557000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1300000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>985000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>806000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>413000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>853000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>807000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>764000</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1351,9 +1408,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1363,30 +1423,33 @@
       <c r="E29" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="3">
         <v>29000</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>173000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-48000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>54000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>51000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>28000</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1417,9 +1480,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1450,75 +1516,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-85000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-36000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-42000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-26000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-31000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-20000</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>2062000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1826000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1557000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1329000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>985000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>979000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>365000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>907000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>858000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>792000</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1549,80 +1624,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>2062000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1826000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1557000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1329000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>985000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>979000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>365000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>907000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>858000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>792000</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43312</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42947</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42582</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42216</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41851</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41486</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41121</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1636,8 +1720,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1651,107 +1736,117 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>2562000</v>
+      </c>
+      <c r="E41" s="3">
         <v>6442000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2116000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1464000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>529000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>638000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>808000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>849000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1009000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>393000</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>1308000</v>
+      </c>
+      <c r="E42" s="3">
         <v>608000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>624000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>252000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>248000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>442000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>889000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1065000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>652000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>351000</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>514000</v>
+      </c>
+      <c r="E43" s="3">
         <v>161000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>152000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>235000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>166000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>128000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>175000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>150000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>192000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>424000</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -1782,174 +1877,192 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>773000</v>
+      </c>
+      <c r="E45" s="3">
         <v>769000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>702000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>569000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>472000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>406000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>688000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>557000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>543000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>584000</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>5157000</v>
+      </c>
+      <c r="E46" s="3">
         <v>7980000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3594000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2422000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1415000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1614000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2560000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2621000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2396000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1523000</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E47" s="3">
         <v>19000</v>
-      </c>
-      <c r="E47" s="3">
-        <v>13000</v>
       </c>
       <c r="F47" s="3">
         <v>13000</v>
       </c>
       <c r="G47" s="3">
+        <v>13000</v>
+      </c>
+      <c r="H47" s="3">
         <v>31000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>28000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>27000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>31000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>83000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>75000</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>1160000</v>
+      </c>
+      <c r="E48" s="3">
         <v>960000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>780000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1624000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1030000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1031000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>682000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>589000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>555000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>543000</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>8865000</v>
+      </c>
+      <c r="E49" s="3">
         <v>1682000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1709000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1733000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1317000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1326000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1353000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1456000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1395000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>689000</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1980,9 +2093,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2013,42 +2129,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>291000</v>
+      </c>
+      <c r="E52" s="3">
         <v>290000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>187000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>302000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>275000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>251000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>346000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>504000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1057000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1056000</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2079,42 +2201,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>15516000</v>
+      </c>
+      <c r="E54" s="3">
         <v>10931000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6283000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5134000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4068000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4250000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4968000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5201000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5486000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4684000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2128,8 +2256,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2143,49 +2272,53 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>623000</v>
+      </c>
+      <c r="E57" s="3">
         <v>305000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>274000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>178000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>157000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>184000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>190000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>145000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>137000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>139000</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>1338000</v>
-      </c>
-      <c r="E58" s="3">
-        <v>50000</v>
       </c>
       <c r="F58" s="3">
         <v>50000</v>
@@ -2194,10 +2327,10 @@
         <v>50000</v>
       </c>
       <c r="H58" s="3">
+        <v>50000</v>
+      </c>
+      <c r="I58" s="3">
         <v>512000</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>51</v>
@@ -2205,101 +2338,110 @@
       <c r="K58" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2032000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1886000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1642000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1515000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1737000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1555000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1554000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1276000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1143000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1250000</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2655000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3529000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1966000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1743000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1944000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2251000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1744000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1421000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1280000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1265000</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2034000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2031000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>386000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>388000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>438000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>488000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>500000</v>
-      </c>
-      <c r="J61" s="3">
-        <v>499000</v>
       </c>
       <c r="K61" s="3">
         <v>499000</v>
@@ -2307,42 +2449,48 @@
       <c r="L61" s="3">
         <v>499000</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>499000</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>958000</v>
+      </c>
+      <c r="E62" s="3">
         <v>265000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>182000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>500000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>332000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>350000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>324000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>169000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>167000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>166000</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2373,9 +2521,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2406,9 +2557,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2439,42 +2593,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5647000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5825000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2534000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2318000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2714000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3089000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2636000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2123000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1955000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1940000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2488,8 +2648,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2520,9 +2681,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2553,9 +2717,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2586,9 +2753,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2619,42 +2789,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>12296000</v>
+      </c>
+      <c r="E72" s="3">
         <v>10885000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>9621000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>8564000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>7297000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6687000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6027000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>5949000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5262000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4612000</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2685,9 +2861,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2718,9 +2897,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2751,42 +2933,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9869000</v>
+      </c>
+      <c r="E76" s="3">
         <v>5106000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3749000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2816000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1354000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1161000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2332000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3078000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3531000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2744000</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2817,80 +3005,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43312</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42947</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42582</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42216</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41851</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41486</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41121</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>2062000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1826000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1557000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1329000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>985000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>979000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>365000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>907000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>858000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>792000</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2904,41 +3101,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>363000</v>
+      </c>
+      <c r="E83" s="3">
         <v>218000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>225000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>253000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>236000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>238000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>231000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>197000</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>242000</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2969,9 +3170,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3002,9 +3206,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3035,9 +3242,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3068,9 +3278,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3101,42 +3314,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3250000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2414000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2324000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2112000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1599000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1460000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1589000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1446000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1366000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1246000</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3150,41 +3369,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-53000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-59000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-76000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-38000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-102000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-416000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-142000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-104000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-129000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-135000</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3215,9 +3438,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3248,42 +3474,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3965000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-97000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-566000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-537000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-17000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>371000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-182000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-49000</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-225000</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3297,41 +3529,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-646000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-561000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-501000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-407000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-353000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-318000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-283000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-220000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-203000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-178000</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3362,9 +3598,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3395,9 +3634,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3428,106 +3670,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3176000</v>
+      </c>
+      <c r="E100" s="3">
         <v>2034000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1034000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-634000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1632000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1999000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1422000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1551000</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1344000</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-6000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-11000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>9000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-26000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-6000</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="L101" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-6000</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3878000</v>
+      </c>
+      <c r="E102" s="3">
         <v>4345000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>721000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>930000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-41000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-170000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-41000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-160000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>616000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-329000</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/INTU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/INTU_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>INTU</t>
   </si>
@@ -666,9 +666,10 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
@@ -1130,25 +1131,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2948000</v>
+        <v>2803000</v>
       </c>
       <c r="E21" s="3">
-        <v>2430000</v>
+        <v>2437000</v>
       </c>
       <c r="F21" s="3">
-        <v>2121000</v>
+        <v>2149000</v>
       </c>
       <c r="G21" s="3">
-        <v>1839000</v>
+        <v>1822000</v>
       </c>
       <c r="H21" s="3">
-        <v>1657000</v>
+        <v>1659000</v>
       </c>
       <c r="I21" s="3">
-        <v>1476000</v>
-      </c>
-      <c r="J21" s="3">
-        <v>970000</v>
+        <v>1469000</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="K21" s="3">
         <v>1528000</v>
@@ -3108,25 +3109,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>363000</v>
+        <v>218000</v>
       </c>
       <c r="E83" s="3">
-        <v>218000</v>
+        <v>225000</v>
       </c>
       <c r="F83" s="3">
-        <v>225000</v>
+        <v>253000</v>
       </c>
       <c r="G83" s="3">
-        <v>253000</v>
+        <v>236000</v>
       </c>
       <c r="H83" s="3">
-        <v>236000</v>
+        <v>238000</v>
       </c>
       <c r="I83" s="3">
-        <v>238000</v>
-      </c>
-      <c r="J83" s="3">
         <v>231000</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="K83" s="3">
         <v>197000</v>
@@ -3324,25 +3325,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3250000</v>
+        <v>2414000</v>
       </c>
       <c r="E89" s="3">
-        <v>2414000</v>
+        <v>2324000</v>
       </c>
       <c r="F89" s="3">
-        <v>2324000</v>
+        <v>2112000</v>
       </c>
       <c r="G89" s="3">
-        <v>2112000</v>
+        <v>1599000</v>
       </c>
       <c r="H89" s="3">
-        <v>1599000</v>
+        <v>1460000</v>
       </c>
       <c r="I89" s="3">
-        <v>1460000</v>
+        <v>1589000</v>
       </c>
       <c r="J89" s="3">
-        <v>1589000</v>
+        <v>1446000</v>
       </c>
       <c r="K89" s="3">
         <v>1446000</v>
@@ -3376,25 +3377,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-53000</v>
+        <v>-59000</v>
       </c>
       <c r="E91" s="3">
-        <v>-59000</v>
+        <v>-76000</v>
       </c>
       <c r="F91" s="3">
-        <v>-76000</v>
+        <v>-38000</v>
       </c>
       <c r="G91" s="3">
-        <v>-38000</v>
+        <v>-102000</v>
       </c>
       <c r="H91" s="3">
-        <v>-102000</v>
+        <v>-416000</v>
       </c>
       <c r="I91" s="3">
-        <v>-416000</v>
+        <v>-142000</v>
       </c>
       <c r="J91" s="3">
-        <v>-142000</v>
+        <v>-104000</v>
       </c>
       <c r="K91" s="3">
         <v>-104000</v>
@@ -3484,25 +3485,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3965000</v>
+        <v>-97000</v>
       </c>
       <c r="E94" s="3">
-        <v>-97000</v>
+        <v>-566000</v>
       </c>
       <c r="F94" s="3">
-        <v>-566000</v>
+        <v>-537000</v>
       </c>
       <c r="G94" s="3">
-        <v>-537000</v>
+        <v>-17000</v>
       </c>
       <c r="H94" s="3">
-        <v>-17000</v>
+        <v>371000</v>
       </c>
       <c r="I94" s="3">
-        <v>371000</v>
-      </c>
-      <c r="J94" s="3">
         <v>-182000</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="K94" s="3">
         <v>-49000</v>
@@ -3536,25 +3537,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-646000</v>
+        <v>-561000</v>
       </c>
       <c r="E96" s="3">
-        <v>-561000</v>
+        <v>-501000</v>
       </c>
       <c r="F96" s="3">
-        <v>-501000</v>
+        <v>-407000</v>
       </c>
       <c r="G96" s="3">
-        <v>-407000</v>
+        <v>-353000</v>
       </c>
       <c r="H96" s="3">
-        <v>-353000</v>
+        <v>-318000</v>
       </c>
       <c r="I96" s="3">
-        <v>-318000</v>
+        <v>-283000</v>
       </c>
       <c r="J96" s="3">
-        <v>-283000</v>
+        <v>-220000</v>
       </c>
       <c r="K96" s="3">
         <v>-220000</v>
@@ -3680,25 +3681,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3176000</v>
+        <v>2034000</v>
       </c>
       <c r="E100" s="3">
-        <v>2034000</v>
+        <v>-1034000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1034000</v>
+        <v>-634000</v>
       </c>
       <c r="G100" s="3">
-        <v>-634000</v>
+        <v>-1632000</v>
       </c>
       <c r="H100" s="3">
-        <v>-1632000</v>
+        <v>-1999000</v>
       </c>
       <c r="I100" s="3">
-        <v>-1999000</v>
-      </c>
-      <c r="J100" s="3">
         <v>-1422000</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="K100" s="3">
         <v>-1551000</v>
@@ -3716,25 +3717,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>13000</v>
+        <v>-6000</v>
       </c>
       <c r="E101" s="3">
-        <v>-6000</v>
+        <v>-3000</v>
       </c>
       <c r="F101" s="3">
-        <v>-3000</v>
+        <v>-11000</v>
       </c>
       <c r="G101" s="3">
-        <v>-11000</v>
+        <v>9000</v>
       </c>
       <c r="H101" s="3">
-        <v>9000</v>
+        <v>-2000</v>
       </c>
       <c r="I101" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="J101" s="3">
         <v>-26000</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="K101" s="3">
         <v>-6000</v>
@@ -3752,25 +3753,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3878000</v>
+        <v>4345000</v>
       </c>
       <c r="E102" s="3">
-        <v>4345000</v>
+        <v>721000</v>
       </c>
       <c r="F102" s="3">
-        <v>721000</v>
+        <v>930000</v>
       </c>
       <c r="G102" s="3">
-        <v>930000</v>
+        <v>-41000</v>
       </c>
       <c r="H102" s="3">
+        <v>-170000</v>
+      </c>
+      <c r="I102" s="3">
         <v>-41000</v>
       </c>
-      <c r="I102" s="3">
-        <v>-170000</v>
-      </c>
       <c r="J102" s="3">
-        <v>-41000</v>
+        <v>-160000</v>
       </c>
       <c r="K102" s="3">
         <v>-160000</v>

--- a/AAII_Financials/Yearly/INTU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/INTU_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>INTU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,171 +665,184 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43312</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42947</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42582</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42216</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41851</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41486</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41121</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12726000</v>
+      </c>
+      <c r="E8" s="3">
         <v>9633000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7679000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6784000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6025000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5196000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4694000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4192000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4243000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3946000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3808000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2406000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1615000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1378000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1167000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>978000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>930000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>752000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>725000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>621000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>670000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1331000</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>10320000</v>
+      </c>
+      <c r="E10" s="3">
         <v>8018000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6301000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5617000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5047000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4266000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3942000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3467000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3622000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3276000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2477000</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -844,44 +857,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2347000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1678000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1392000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1233000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1186000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>998000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>881000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>798000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>714000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1332000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>618000</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -915,9 +932,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,38 +950,41 @@
       <c r="F14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="3">
         <v>79000</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>148000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>416000</v>
+      </c>
+      <c r="E15" s="3">
         <v>146000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>6000</v>
       </c>
       <c r="F15" s="3">
         <v>6000</v>
@@ -970,26 +993,29 @@
         <v>6000</v>
       </c>
       <c r="H15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I15" s="3">
         <v>2000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>12000</v>
       </c>
       <c r="J15" s="3">
         <v>12000</v>
       </c>
       <c r="K15" s="3">
+        <v>12000</v>
+      </c>
+      <c r="L15" s="3">
         <v>7000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>17000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>23000</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1001,80 +1027,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>10155000</v>
+      </c>
+      <c r="E17" s="3">
         <v>7133000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5503000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4930000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4465000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3778000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3452000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3454000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2943000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2738000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2640000</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>2571000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2500000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2176000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1854000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1560000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1418000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1242000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>738000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1300000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1208000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1168000</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1089,188 +1122,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E20" s="3">
         <v>85000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>36000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>42000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>26000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>31000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>20000</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2803000</v>
+        <v>3369000</v>
       </c>
       <c r="E21" s="3">
-        <v>2437000</v>
+        <v>2948000</v>
       </c>
       <c r="F21" s="3">
-        <v>2149000</v>
+        <v>2430000</v>
       </c>
       <c r="G21" s="3">
-        <v>1822000</v>
+        <v>2121000</v>
       </c>
       <c r="H21" s="3">
-        <v>1659000</v>
+        <v>1839000</v>
       </c>
       <c r="I21" s="3">
-        <v>1469000</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>1657000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1476000</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1528000</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1430000</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>81000</v>
+      </c>
+      <c r="E22" s="3">
         <v>29000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>14000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>15000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>20000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>31000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>35000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>27000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>31000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>30000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>50000</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>2542000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2556000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2198000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1881000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1566000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1390000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1203000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>712000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1300000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1185000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1138000</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>476000</v>
+      </c>
+      <c r="E24" s="3">
         <v>494000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>372000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>324000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>266000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>405000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>397000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>299000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>447000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>378000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>374000</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1304,81 +1353,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>2066000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2062000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1826000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1557000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1300000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>985000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>806000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>413000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>853000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>807000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>764000</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>2066000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2062000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1826000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1557000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1300000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>985000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>806000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>413000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>853000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>807000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>764000</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1412,9 +1470,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1427,30 +1488,33 @@
       <c r="F29" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29" s="3">
         <v>29000</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>173000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-48000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>54000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>51000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>28000</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1484,9 +1548,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1520,81 +1587,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-85000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-36000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-42000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-26000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-31000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-20000</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>2066000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2062000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1826000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1557000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1329000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>985000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>979000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>365000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>907000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>858000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>792000</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1628,86 +1704,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>2066000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2062000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1826000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1557000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1329000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>985000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>979000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>365000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>907000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>858000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>792000</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43312</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42947</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42582</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42216</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41851</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41486</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41121</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1722,8 +1807,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1738,116 +1824,126 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>2796000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2562000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6442000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2116000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1464000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>529000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>638000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>808000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>849000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1009000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>393000</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>485000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1308000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>608000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>624000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>252000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>248000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>442000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>889000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1065000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>652000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>351000</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>1048000</v>
+      </c>
+      <c r="E43" s="3">
         <v>514000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>161000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>152000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>235000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>166000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>128000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>175000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>150000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>192000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>424000</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -1881,189 +1977,207 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>718000</v>
+      </c>
+      <c r="E45" s="3">
         <v>773000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>769000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>702000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>569000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>472000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>406000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>688000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>557000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>543000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>584000</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>5047000</v>
+      </c>
+      <c r="E46" s="3">
         <v>5157000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7980000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3594000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2422000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1415000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1614000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2560000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2621000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2396000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1523000</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>98000</v>
+      </c>
+      <c r="E47" s="3">
         <v>43000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>19000</v>
-      </c>
-      <c r="F47" s="3">
-        <v>13000</v>
       </c>
       <c r="G47" s="3">
         <v>13000</v>
       </c>
       <c r="H47" s="3">
+        <v>13000</v>
+      </c>
+      <c r="I47" s="3">
         <v>31000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>28000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>27000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>31000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>83000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>75000</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>1437000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1160000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>960000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>780000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1624000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1030000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1031000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>682000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>589000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>555000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>543000</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>20797000</v>
+      </c>
+      <c r="E49" s="3">
         <v>8865000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1682000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1709000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1733000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1317000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1326000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1353000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1456000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1395000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>689000</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2097,9 +2211,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2133,45 +2250,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>355000</v>
+      </c>
+      <c r="E52" s="3">
         <v>291000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>290000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>187000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>302000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>275000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>251000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>346000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>504000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1057000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1056000</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2205,45 +2328,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>27734000</v>
+      </c>
+      <c r="E54" s="3">
         <v>15516000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10931000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6283000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5134000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4068000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4250000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4968000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5201000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5486000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4684000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2258,8 +2387,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2274,55 +2404,59 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>737000</v>
+      </c>
+      <c r="E57" s="3">
         <v>623000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>305000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>274000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>178000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>157000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>184000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>190000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>145000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>137000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>139000</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>499000</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>1338000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>50000</v>
       </c>
       <c r="G58" s="3">
         <v>50000</v>
@@ -2331,10 +2465,10 @@
         <v>50000</v>
       </c>
       <c r="I58" s="3">
+        <v>50000</v>
+      </c>
+      <c r="J58" s="3">
         <v>512000</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>51</v>
@@ -2342,110 +2476,119 @@
       <c r="L58" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2394000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2032000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1886000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1642000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1515000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1737000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1555000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1554000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1276000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1143000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1250000</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3630000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2655000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3529000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1966000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1743000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1944000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2251000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1744000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1421000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1280000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1265000</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6415000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2034000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2031000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>386000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>388000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>438000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>488000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>500000</v>
-      </c>
-      <c r="K61" s="3">
-        <v>499000</v>
       </c>
       <c r="L61" s="3">
         <v>499000</v>
@@ -2453,45 +2596,51 @@
       <c r="M61" s="3">
         <v>499000</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>499000</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1248000</v>
+      </c>
+      <c r="E62" s="3">
         <v>958000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>265000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>182000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>500000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>332000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>350000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>324000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>169000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>167000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>166000</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2525,9 +2674,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2561,9 +2713,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2597,45 +2752,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11293000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5647000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5825000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2534000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2318000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2714000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3089000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2636000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2123000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1955000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1940000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2650,8 +2811,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2685,9 +2847,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2721,9 +2886,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2757,9 +2925,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2793,45 +2964,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>13581000</v>
+      </c>
+      <c r="E72" s="3">
         <v>12296000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>10885000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>9621000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>8564000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>7297000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6687000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6027000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5949000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5262000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4612000</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2865,9 +3042,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2901,9 +3081,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2937,45 +3120,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16441000</v>
+      </c>
+      <c r="E76" s="3">
         <v>9869000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5106000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3749000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2816000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1354000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1161000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2332000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3078000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3531000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2744000</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3009,86 +3198,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43312</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42947</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42582</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42216</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41851</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41486</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41121</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>2066000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2062000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1826000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1557000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1329000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>985000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>979000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>365000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>907000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>858000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>792000</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3103,44 +3301,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>746000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>363000</v>
+      </c>
+      <c r="F83" s="3">
         <v>218000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>225000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>253000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>236000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>238000</v>
       </c>
-      <c r="I83" s="3">
-        <v>231000</v>
-      </c>
-      <c r="J83" s="3" t="s">
+      <c r="K83" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>197000</v>
       </c>
-      <c r="L83" s="3" t="s">
+      <c r="M83" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>242000</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3174,9 +3376,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3210,9 +3415,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3246,9 +3454,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3282,9 +3493,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3318,45 +3532,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3889000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>3250000</v>
+      </c>
+      <c r="F89" s="3">
         <v>2414000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>2324000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>2112000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>1599000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>1460000</v>
-      </c>
-      <c r="I89" s="3">
-        <v>1589000</v>
-      </c>
-      <c r="J89" s="3">
-        <v>1446000</v>
       </c>
       <c r="K89" s="3">
         <v>1446000</v>
       </c>
       <c r="L89" s="3">
+        <v>1446000</v>
+      </c>
+      <c r="M89" s="3">
         <v>1366000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1246000</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3371,44 +3591,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-157000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-53000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-59000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-76000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-38000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-102000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-416000</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-142000</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-104000</v>
       </c>
       <c r="K91" s="3">
         <v>-104000</v>
       </c>
       <c r="L91" s="3">
+        <v>-104000</v>
+      </c>
+      <c r="M91" s="3">
         <v>-129000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-135000</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3442,9 +3666,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3478,45 +3705,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5421000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-3965000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-97000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-566000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-537000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-17000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>371000</v>
       </c>
-      <c r="I94" s="3">
-        <v>-182000</v>
-      </c>
-      <c r="J94" s="3" t="s">
+      <c r="K94" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-49000</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="M94" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-225000</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3531,44 +3764,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-774000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-646000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-561000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-501000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-407000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-353000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-318000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-283000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-220000</v>
       </c>
       <c r="K96" s="3">
         <v>-220000</v>
       </c>
       <c r="L96" s="3">
+        <v>-220000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-203000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-178000</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3602,9 +3839,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3638,9 +3878,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3674,115 +3917,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1732000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-3176000</v>
+      </c>
+      <c r="F100" s="3">
         <v>2034000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-1034000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-634000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-1632000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-1999000</v>
       </c>
-      <c r="I100" s="3">
-        <v>-1422000</v>
-      </c>
-      <c r="J100" s="3" t="s">
+      <c r="K100" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1551000</v>
       </c>
-      <c r="L100" s="3" t="s">
+      <c r="M100" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1344000</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-6000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-3000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-11000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>9000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-2000</v>
       </c>
-      <c r="I101" s="3">
-        <v>-26000</v>
-      </c>
-      <c r="J101" s="3" t="s">
+      <c r="K101" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-6000</v>
       </c>
-      <c r="L101" s="3" t="s">
+      <c r="M101" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-6000</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>178000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-3878000</v>
+      </c>
+      <c r="F102" s="3">
         <v>4345000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>721000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>930000</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-41000</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-170000</v>
       </c>
       <c r="I102" s="3">
         <v>-41000</v>
       </c>
       <c r="J102" s="3">
-        <v>-160000</v>
+        <v>-170000</v>
       </c>
       <c r="K102" s="3">
         <v>-160000</v>
       </c>
       <c r="L102" s="3">
+        <v>-160000</v>
+      </c>
+      <c r="M102" s="3">
         <v>616000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-329000</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/INTU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/INTU_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>INTU</t>
   </si>
@@ -666,10 +666,9 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.140625" style="1" bestFit="1" customWidth="1"/>
@@ -1168,25 +1167,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>3369000</v>
+        <v>2986000</v>
       </c>
       <c r="E21" s="3">
-        <v>2948000</v>
+        <v>2803000</v>
       </c>
       <c r="F21" s="3">
-        <v>2430000</v>
+        <v>2437000</v>
       </c>
       <c r="G21" s="3">
-        <v>2121000</v>
+        <v>2149000</v>
       </c>
       <c r="H21" s="3">
-        <v>1839000</v>
+        <v>1822000</v>
       </c>
       <c r="I21" s="3">
-        <v>1657000</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1476000</v>
+        <v>1659000</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>51</v>
@@ -3308,25 +3307,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>746000</v>
+        <v>363000</v>
       </c>
       <c r="E83" s="3">
-        <v>363000</v>
+        <v>218000</v>
       </c>
       <c r="F83" s="3">
-        <v>218000</v>
+        <v>225000</v>
       </c>
       <c r="G83" s="3">
-        <v>225000</v>
+        <v>253000</v>
       </c>
       <c r="H83" s="3">
-        <v>253000</v>
+        <v>236000</v>
       </c>
       <c r="I83" s="3">
-        <v>236000</v>
-      </c>
-      <c r="J83" s="3">
         <v>238000</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>51</v>
@@ -3542,25 +3541,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3889000</v>
+        <v>3250000</v>
       </c>
       <c r="E89" s="3">
-        <v>3250000</v>
+        <v>2414000</v>
       </c>
       <c r="F89" s="3">
-        <v>2414000</v>
+        <v>2324000</v>
       </c>
       <c r="G89" s="3">
-        <v>2324000</v>
+        <v>2112000</v>
       </c>
       <c r="H89" s="3">
-        <v>2112000</v>
+        <v>1599000</v>
       </c>
       <c r="I89" s="3">
-        <v>1599000</v>
+        <v>1460000</v>
       </c>
       <c r="J89" s="3">
-        <v>1460000</v>
+        <v>1589000</v>
       </c>
       <c r="K89" s="3">
         <v>1446000</v>
@@ -3598,25 +3597,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-157000</v>
+        <v>-53000</v>
       </c>
       <c r="E91" s="3">
-        <v>-53000</v>
+        <v>-59000</v>
       </c>
       <c r="F91" s="3">
-        <v>-59000</v>
+        <v>-76000</v>
       </c>
       <c r="G91" s="3">
-        <v>-76000</v>
+        <v>-38000</v>
       </c>
       <c r="H91" s="3">
-        <v>-38000</v>
+        <v>-102000</v>
       </c>
       <c r="I91" s="3">
-        <v>-102000</v>
+        <v>-416000</v>
       </c>
       <c r="J91" s="3">
-        <v>-416000</v>
+        <v>-142000</v>
       </c>
       <c r="K91" s="3">
         <v>-104000</v>
@@ -3715,25 +3714,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5421000</v>
+        <v>-3965000</v>
       </c>
       <c r="E94" s="3">
-        <v>-3965000</v>
+        <v>-97000</v>
       </c>
       <c r="F94" s="3">
-        <v>-97000</v>
+        <v>-566000</v>
       </c>
       <c r="G94" s="3">
-        <v>-566000</v>
+        <v>-537000</v>
       </c>
       <c r="H94" s="3">
-        <v>-537000</v>
+        <v>-17000</v>
       </c>
       <c r="I94" s="3">
-        <v>-17000</v>
-      </c>
-      <c r="J94" s="3">
         <v>371000</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>51</v>
@@ -3771,25 +3770,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-774000</v>
+        <v>-646000</v>
       </c>
       <c r="E96" s="3">
-        <v>-646000</v>
+        <v>-561000</v>
       </c>
       <c r="F96" s="3">
-        <v>-561000</v>
+        <v>-501000</v>
       </c>
       <c r="G96" s="3">
-        <v>-501000</v>
+        <v>-407000</v>
       </c>
       <c r="H96" s="3">
-        <v>-407000</v>
+        <v>-353000</v>
       </c>
       <c r="I96" s="3">
-        <v>-353000</v>
+        <v>-318000</v>
       </c>
       <c r="J96" s="3">
-        <v>-318000</v>
+        <v>-283000</v>
       </c>
       <c r="K96" s="3">
         <v>-220000</v>
@@ -3927,25 +3926,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1732000</v>
+        <v>-3176000</v>
       </c>
       <c r="E100" s="3">
-        <v>-3176000</v>
+        <v>2034000</v>
       </c>
       <c r="F100" s="3">
-        <v>2034000</v>
+        <v>-1034000</v>
       </c>
       <c r="G100" s="3">
-        <v>-1034000</v>
+        <v>-634000</v>
       </c>
       <c r="H100" s="3">
-        <v>-634000</v>
+        <v>-1632000</v>
       </c>
       <c r="I100" s="3">
-        <v>-1632000</v>
-      </c>
-      <c r="J100" s="3">
         <v>-1999000</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>51</v>
@@ -3966,25 +3965,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-22000</v>
+        <v>13000</v>
       </c>
       <c r="E101" s="3">
-        <v>13000</v>
+        <v>-6000</v>
       </c>
       <c r="F101" s="3">
-        <v>-6000</v>
+        <v>-3000</v>
       </c>
       <c r="G101" s="3">
-        <v>-3000</v>
+        <v>-11000</v>
       </c>
       <c r="H101" s="3">
-        <v>-11000</v>
+        <v>9000</v>
       </c>
       <c r="I101" s="3">
-        <v>9000</v>
-      </c>
-      <c r="J101" s="3">
         <v>-2000</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>51</v>
@@ -4005,25 +4004,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>178000</v>
+        <v>-3878000</v>
       </c>
       <c r="E102" s="3">
-        <v>-3878000</v>
+        <v>4345000</v>
       </c>
       <c r="F102" s="3">
-        <v>4345000</v>
+        <v>721000</v>
       </c>
       <c r="G102" s="3">
-        <v>721000</v>
+        <v>930000</v>
       </c>
       <c r="H102" s="3">
-        <v>930000</v>
+        <v>-41000</v>
       </c>
       <c r="I102" s="3">
+        <v>-170000</v>
+      </c>
+      <c r="J102" s="3">
         <v>-41000</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-170000</v>
       </c>
       <c r="K102" s="3">
         <v>-160000</v>

--- a/AAII_Financials/Yearly/INTU_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/INTU_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>INTU</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,183 +665,196 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43312</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42947</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42582</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42216</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41851</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41486</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>41121</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>14368000</v>
+      </c>
+      <c r="E8" s="3">
         <v>12726000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9633000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7679000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6784000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6025000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5196000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4694000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4192000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4243000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3946000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3808000</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3143000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2406000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1615000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1378000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1167000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>978000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>930000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>752000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>725000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>621000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>670000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1331000</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>11225000</v>
+      </c>
+      <c r="E10" s="3">
         <v>10320000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>8018000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6301000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5617000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5047000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4266000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3942000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3467000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3622000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3276000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2477000</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -857,47 +870,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>2539000</v>
+      </c>
+      <c r="E12" s="3">
         <v>2347000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1678000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1392000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1233000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1186000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>998000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>881000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>798000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>714000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1332000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>618000</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -934,9 +951,12 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -952,41 +972,44 @@
       <c r="G14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="3">
         <v>79000</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>148000</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>483000</v>
+      </c>
+      <c r="E15" s="3">
         <v>416000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>146000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>6000</v>
       </c>
       <c r="G15" s="3">
         <v>6000</v>
@@ -995,26 +1018,29 @@
         <v>6000</v>
       </c>
       <c r="I15" s="3">
+        <v>6000</v>
+      </c>
+      <c r="J15" s="3">
         <v>2000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>12000</v>
       </c>
       <c r="K15" s="3">
         <v>12000</v>
       </c>
       <c r="L15" s="3">
+        <v>12000</v>
+      </c>
+      <c r="M15" s="3">
         <v>7000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>17000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>23000</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1027,86 +1053,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>11227000</v>
+      </c>
+      <c r="E17" s="3">
         <v>10155000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7133000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5503000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4930000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4465000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3778000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3452000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3454000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2943000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2738000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2640000</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>3141000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2571000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2500000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2176000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1854000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1560000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1418000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1242000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>738000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1300000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1208000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1168000</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1122,203 +1155,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>96000</v>
+      </c>
+      <c r="E20" s="3">
         <v>52000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>85000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>36000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>42000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>26000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>31000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>7000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>20000</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2986000</v>
+        <v>4043000</v>
       </c>
       <c r="E21" s="3">
-        <v>2803000</v>
+        <v>3369000</v>
       </c>
       <c r="F21" s="3">
-        <v>2437000</v>
+        <v>2948000</v>
       </c>
       <c r="G21" s="3">
-        <v>2149000</v>
+        <v>2430000</v>
       </c>
       <c r="H21" s="3">
-        <v>1822000</v>
+        <v>2121000</v>
       </c>
       <c r="I21" s="3">
-        <v>1659000</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>51</v>
+        <v>1839000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1657000</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M21" s="3">
         <v>1528000</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1430000</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>248000</v>
+      </c>
+      <c r="E22" s="3">
         <v>81000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>29000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>14000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>15000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>20000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>31000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>35000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>27000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>31000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>30000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>50000</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>2989000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2542000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2556000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2198000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1881000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1566000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1390000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1203000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>712000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1300000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1185000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1138000</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>605000</v>
+      </c>
+      <c r="E24" s="3">
         <v>476000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>494000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>372000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>324000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>266000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>405000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>397000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>299000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>447000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>378000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>374000</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1355,87 +1404,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>2384000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2066000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2062000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1826000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1557000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1300000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>985000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>806000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>413000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>853000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>807000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>764000</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>2384000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2066000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2062000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1826000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1557000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1300000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>985000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>806000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>413000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>853000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>807000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>764000</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1472,9 +1530,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1490,30 +1551,33 @@
       <c r="G29" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29" s="3">
         <v>29000</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>173000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-48000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>54000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>51000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>28000</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1550,9 +1614,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1589,87 +1656,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-96000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-52000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-85000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-36000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-42000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-26000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-31000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-7000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-20000</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>2384000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2066000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2062000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1826000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1557000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1329000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>985000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>979000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>365000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>907000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>858000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>792000</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1706,92 +1782,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>2384000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2066000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2062000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1826000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1557000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1329000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>985000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>979000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>365000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>907000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>858000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>792000</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43312</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42947</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42582</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42216</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41851</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41486</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>41121</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1807,8 +1892,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1824,125 +1910,135 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>2848000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2796000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2562000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6442000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2116000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1464000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>529000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>638000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>808000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>849000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1009000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>393000</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>814000</v>
+      </c>
+      <c r="E42" s="3">
         <v>485000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1308000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>608000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>624000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>252000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>248000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>442000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>889000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1065000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>652000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>351000</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>1121000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1048000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>514000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>161000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>152000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>235000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>166000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>128000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>175000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>150000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>192000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>424000</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -1979,204 +2075,222 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>774000</v>
+      </c>
+      <c r="E45" s="3">
         <v>718000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>773000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>769000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>702000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>569000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>472000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>406000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>688000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>557000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>543000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>584000</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>5557000</v>
+      </c>
+      <c r="E46" s="3">
         <v>5047000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5157000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7980000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3594000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2422000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1415000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1614000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2560000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2621000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2396000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1523000</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>180000</v>
+      </c>
+      <c r="E47" s="3">
         <v>98000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>43000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>19000</v>
-      </c>
-      <c r="G47" s="3">
-        <v>13000</v>
       </c>
       <c r="H47" s="3">
         <v>13000</v>
       </c>
       <c r="I47" s="3">
+        <v>13000</v>
+      </c>
+      <c r="J47" s="3">
         <v>31000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>28000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>27000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>31000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>83000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>75000</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>1438000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1437000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1160000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>960000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>780000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1624000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1030000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1031000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>682000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>589000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>555000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>543000</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>20199000</v>
+      </c>
+      <c r="E49" s="3">
         <v>20797000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>8865000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1682000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1709000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1733000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1317000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1326000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1353000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1456000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1395000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>689000</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2213,9 +2327,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2252,48 +2369,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>406000</v>
+      </c>
+      <c r="E52" s="3">
         <v>355000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>291000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>290000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>187000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>302000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>275000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>251000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>346000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>504000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1057000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1056000</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2330,48 +2453,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>27780000</v>
+      </c>
+      <c r="E54" s="3">
         <v>27734000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15516000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10931000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6283000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5134000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4068000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4250000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4968000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5201000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5486000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4684000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2387,8 +2516,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2404,61 +2534,65 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>638000</v>
+      </c>
+      <c r="E57" s="3">
         <v>737000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>623000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>305000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>274000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>178000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>157000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>184000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>190000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>145000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>137000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>139000</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>499000</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>1338000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>50000</v>
       </c>
       <c r="H58" s="3">
         <v>50000</v>
@@ -2467,10 +2601,10 @@
         <v>50000</v>
       </c>
       <c r="J58" s="3">
+        <v>50000</v>
+      </c>
+      <c r="K58" s="3">
         <v>512000</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>51</v>
@@ -2478,119 +2612,128 @@
       <c r="M58" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3152000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2394000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2032000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1886000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1642000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1515000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1737000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1555000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1554000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1276000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1143000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1250000</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3790000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3630000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2655000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3529000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1966000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1743000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1944000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2251000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1744000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1421000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1280000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1265000</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6120000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6415000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2034000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2031000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>386000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>388000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>438000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>488000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>500000</v>
-      </c>
-      <c r="L61" s="3">
-        <v>499000</v>
       </c>
       <c r="M61" s="3">
         <v>499000</v>
@@ -2598,48 +2741,54 @@
       <c r="N61" s="3">
         <v>499000</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>499000</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>601000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1248000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>958000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>265000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>182000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>500000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>332000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>350000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>324000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>169000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>167000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>166000</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2676,9 +2825,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2715,9 +2867,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2754,48 +2909,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10511000</v>
+      </c>
+      <c r="E66" s="3">
         <v>11293000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5647000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5825000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2534000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2318000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2714000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3089000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2636000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2123000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1955000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1940000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2811,8 +2972,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2849,9 +3011,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2888,9 +3053,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2927,9 +3095,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2966,48 +3137,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>15067000</v>
+      </c>
+      <c r="E72" s="3">
         <v>13581000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>12296000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>10885000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>9621000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>8564000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>7297000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6687000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6027000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5949000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5262000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4612000</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3044,9 +3221,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3083,9 +3263,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3122,48 +3305,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>17269000</v>
+      </c>
+      <c r="E76" s="3">
         <v>16441000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9869000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5106000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3749000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2816000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1354000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1161000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2332000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3078000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3531000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2744000</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3200,92 +3389,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43312</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42947</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42582</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42216</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41851</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41486</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>41121</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>2384000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2066000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2062000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1826000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1557000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1329000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>985000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>979000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>365000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>907000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>858000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>792000</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3301,47 +3499,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>806000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>746000</v>
+      </c>
+      <c r="F83" s="3">
         <v>363000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>218000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>225000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>253000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>236000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>238000</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M83" s="3">
         <v>197000</v>
       </c>
-      <c r="M83" s="3" t="s">
+      <c r="N83" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>242000</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3378,9 +3580,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3417,9 +3622,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3456,9 +3664,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3495,9 +3706,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3534,48 +3748,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5046000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>3889000</v>
+      </c>
+      <c r="F89" s="3">
         <v>3250000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>2414000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>2324000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>2112000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>1599000</v>
       </c>
-      <c r="I89" s="3">
-        <v>1460000</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1589000</v>
-      </c>
-      <c r="K89" s="3">
-        <v>1446000</v>
       </c>
       <c r="L89" s="3">
         <v>1446000</v>
       </c>
       <c r="M89" s="3">
+        <v>1446000</v>
+      </c>
+      <c r="N89" s="3">
         <v>1366000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1246000</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3591,47 +3811,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-210000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-157000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-53000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-59000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-76000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-38000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-102000</v>
       </c>
-      <c r="I91" s="3">
-        <v>-416000</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-142000</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-104000</v>
       </c>
       <c r="L91" s="3">
         <v>-104000</v>
       </c>
       <c r="M91" s="3">
+        <v>-104000</v>
+      </c>
+      <c r="N91" s="3">
         <v>-129000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-135000</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3668,9 +3892,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3707,48 +3934,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-922000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-5421000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-3965000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-97000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-566000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-537000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-17000</v>
-      </c>
-      <c r="I94" s="3">
-        <v>371000</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M94" s="3">
         <v>-49000</v>
       </c>
-      <c r="M94" s="3" t="s">
+      <c r="N94" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-225000</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3764,47 +3997,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-889000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-774000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-646000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-561000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-501000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-407000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-353000</v>
       </c>
-      <c r="I96" s="3">
-        <v>-318000</v>
-      </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-283000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-220000</v>
       </c>
       <c r="L96" s="3">
         <v>-220000</v>
       </c>
       <c r="M96" s="3">
+        <v>-220000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-203000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-178000</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3841,9 +4078,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3880,9 +4120,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3919,124 +4162,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4269000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1732000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-3176000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>2034000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-1034000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-634000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-1632000</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-1999000</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M100" s="3">
         <v>-1551000</v>
       </c>
-      <c r="M100" s="3" t="s">
+      <c r="N100" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1344000</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="F101" s="3">
         <v>13000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-6000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-3000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-11000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>9000</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M101" s="3">
         <v>-6000</v>
       </c>
-      <c r="M101" s="3" t="s">
+      <c r="N101" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-6000</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-145000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>178000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-3878000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>4345000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>721000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>930000</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-41000</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-170000</v>
       </c>
       <c r="J102" s="3">
         <v>-41000</v>
       </c>
       <c r="K102" s="3">
-        <v>-160000</v>
+        <v>-41000</v>
       </c>
       <c r="L102" s="3">
         <v>-160000</v>
       </c>
       <c r="M102" s="3">
+        <v>-160000</v>
+      </c>
+      <c r="N102" s="3">
         <v>616000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-329000</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
